--- a/inst/extdata/toyFiles/ROC/rocSpCVaryK.xlsx
+++ b/inst/extdata/toyFiles/ROC/rocSpCVaryK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/ROC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25F7B727-179E-8B4A-A05C-151B664A7C93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3D2B1A-2492-374E-B8EF-1A4028668C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21220" yWindow="940" windowWidth="12680" windowHeight="18260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16120" yWindow="500" windowWidth="12680" windowHeight="16580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP" sheetId="1" r:id="rId1"/>
@@ -50,12 +50,6 @@
     <t>ModalityID</t>
   </si>
   <si>
-    <t>NL_Rating</t>
-  </si>
-  <si>
-    <t>LL_Rating</t>
-  </si>
-  <si>
     <t>Paradigm</t>
   </si>
   <si>
@@ -69,6 +63,12 @@
   </si>
   <si>
     <t xml:space="preserve">* </t>
+  </si>
+  <si>
+    <t>TP_Rating</t>
+  </si>
+  <si>
+    <t>FP_Rating</t>
   </si>
 </sst>
 </file>
@@ -232,7 +232,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -240,22 +240,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -657,7 +651,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -679,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -791,7 +785,7 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>36</v>
       </c>
       <c r="D8" s="1">
@@ -808,7 +802,7 @@
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>37</v>
       </c>
       <c r="D9" s="1">
@@ -825,7 +819,7 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>38</v>
       </c>
       <c r="D10" s="1">
@@ -842,7 +836,7 @@
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>39</v>
       </c>
       <c r="D11" s="1">
@@ -859,7 +853,7 @@
       <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>36</v>
       </c>
       <c r="D12" s="1">
@@ -876,7 +870,7 @@
       <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>37</v>
       </c>
       <c r="D13" s="1">
@@ -893,7 +887,7 @@
       <c r="B14" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>38</v>
       </c>
       <c r="D14" s="1">
@@ -910,7 +904,7 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>39</v>
       </c>
       <c r="D15" s="1">
@@ -927,7 +921,7 @@
       <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>51</v>
       </c>
       <c r="D16" s="2">
@@ -944,7 +938,7 @@
       <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>52</v>
       </c>
       <c r="D17" s="2">
@@ -961,7 +955,7 @@
       <c r="B18" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>53</v>
       </c>
       <c r="D18" s="2">
@@ -978,7 +972,7 @@
       <c r="B19" s="2">
         <v>1</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>54</v>
       </c>
       <c r="D19" s="2">
@@ -995,7 +989,7 @@
       <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>55</v>
       </c>
       <c r="D20" s="2">
@@ -1012,7 +1006,7 @@
       <c r="B21" s="2">
         <v>2</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>51</v>
       </c>
       <c r="D21" s="2">
@@ -1029,7 +1023,7 @@
       <c r="B22" s="2">
         <v>2</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>52</v>
       </c>
       <c r="D22" s="2">
@@ -1046,7 +1040,7 @@
       <c r="B23" s="2">
         <v>2</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>53</v>
       </c>
       <c r="D23" s="2">
@@ -1063,7 +1057,7 @@
       <c r="B24" s="2">
         <v>2</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>54</v>
       </c>
       <c r="D24" s="2">
@@ -1080,7 +1074,7 @@
       <c r="B25" s="2">
         <v>2</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <v>55</v>
       </c>
       <c r="D25" s="2">
@@ -1105,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1125,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1219,7 +1213,7 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>21</v>
       </c>
       <c r="D8" s="1">
@@ -1233,7 +1227,7 @@
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>22</v>
       </c>
       <c r="D9" s="1">
@@ -1247,7 +1241,7 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>23</v>
       </c>
       <c r="D10" s="1">
@@ -1261,7 +1255,7 @@
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>24</v>
       </c>
       <c r="D11" s="1">
@@ -1275,7 +1269,7 @@
       <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>21</v>
       </c>
       <c r="D12" s="1">
@@ -1289,7 +1283,7 @@
       <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>22</v>
       </c>
       <c r="D13" s="1">
@@ -1303,7 +1297,7 @@
       <c r="B14" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>23</v>
       </c>
       <c r="D14" s="1">
@@ -1317,7 +1311,7 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>24</v>
       </c>
       <c r="D15" s="1">
@@ -1331,7 +1325,7 @@
       <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>46</v>
       </c>
       <c r="D16" s="1">
@@ -1345,7 +1339,7 @@
       <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>47</v>
       </c>
       <c r="D17" s="1">
@@ -1359,7 +1353,7 @@
       <c r="B18" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>48</v>
       </c>
       <c r="D18" s="1">
@@ -1373,7 +1367,7 @@
       <c r="B19" s="2">
         <v>1</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>49</v>
       </c>
       <c r="D19" s="1">
@@ -1387,7 +1381,7 @@
       <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>50</v>
       </c>
       <c r="D20" s="1">
@@ -1401,7 +1395,7 @@
       <c r="B21" s="2">
         <v>2</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>46</v>
       </c>
       <c r="D21" s="1">
@@ -1415,7 +1409,7 @@
       <c r="B22" s="2">
         <v>2</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>47</v>
       </c>
       <c r="D22" s="1">
@@ -1429,7 +1423,7 @@
       <c r="B23" s="2">
         <v>2</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>48</v>
       </c>
       <c r="D23" s="1">
@@ -1443,7 +1437,7 @@
       <c r="B24" s="2">
         <v>2</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>49</v>
       </c>
       <c r="D24" s="1">
@@ -1457,7 +1451,7 @@
       <c r="B25" s="2">
         <v>2</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <v>50</v>
       </c>
       <c r="D25" s="1">
@@ -1479,452 +1473,452 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="8.83203125" style="3"/>
+    <col min="1" max="4" width="8.83203125" style="1"/>
     <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>4</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>21</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
-        <v>4</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>22</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8">
-        <v>4</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>23</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8">
-        <v>4</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>24</v>
-      </c>
-      <c r="B11" s="5">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
-        <v>4</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>36</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>4</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>37</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
-        <v>4</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>38</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <v>4</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>39</v>
       </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="8">
-        <v>4</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>10</v>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>46</v>
       </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>5</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>10</v>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>47</v>
       </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>5</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>10</v>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>48</v>
       </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <v>5</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>10</v>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>49</v>
       </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>5</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>10</v>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>50</v>
       </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>5</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>10</v>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>51</v>
       </c>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>5</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>10</v>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>52</v>
       </c>
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>5</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>10</v>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>53</v>
       </c>
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7">
-        <v>5</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>54</v>
       </c>
-      <c r="B24" s="4">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>5</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>10</v>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>55</v>
       </c>
-      <c r="B25" s="4">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>5</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>10</v>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
